--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45F2C9-27D8-4B5A-A123-BDDE8B13135C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="231">
   <si>
     <t>PERIOD</t>
   </si>
@@ -725,12 +724,15 @@
   </si>
   <si>
     <t>2/15,16/2023</t>
+  </si>
+  <si>
+    <t>3/14-18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1608,7 +1610,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1653,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1717,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1777,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1843,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1906,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2004,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2063,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2128,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2171,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2246,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2432,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2498,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2556,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2622,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2678,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2753,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2796,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2862,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2918,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3016,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3079,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,25 +3145,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3173,13 +3175,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3188,14 +3190,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3499,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3509,7 +3511,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3517,34 +3519,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A387" activePane="bottomLeft"/>
+      <pane ySplit="3660" topLeftCell="A390" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B400" sqref="B400"/>
+      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3567,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3605,7 +3607,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3613,7 +3615,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3626,7 +3628,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3643,7 +3645,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3687,7 +3689,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>101.62099999999998</v>
+        <v>102.87099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3697,12 +3699,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268.06</v>
+        <v>264.31</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -3724,7 +3726,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -3744,7 +3746,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -3764,7 +3766,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -3784,7 +3786,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -3804,7 +3806,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36100</v>
       </c>
@@ -3824,7 +3826,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36130</v>
       </c>
@@ -3848,7 +3850,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>43</v>
       </c>
@@ -3866,7 +3868,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36161</v>
       </c>
@@ -3886,7 +3888,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36192</v>
       </c>
@@ -3906,7 +3908,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36220</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36251</v>
       </c>
@@ -3946,7 +3948,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36281</v>
       </c>
@@ -3966,7 +3968,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36312</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36342</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36373</v>
       </c>
@@ -4026,7 +4028,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36404</v>
       </c>
@@ -4046,7 +4048,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36434</v>
       </c>
@@ -4066,7 +4068,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36465</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36495</v>
       </c>
@@ -4110,7 +4112,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>45</v>
       </c>
@@ -4128,7 +4130,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36526</v>
       </c>
@@ -4148,7 +4150,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36557</v>
       </c>
@@ -4168,7 +4170,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36586</v>
       </c>
@@ -4188,7 +4190,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36617</v>
       </c>
@@ -4208,7 +4210,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36647</v>
       </c>
@@ -4228,7 +4230,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36678</v>
       </c>
@@ -4248,7 +4250,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -4268,7 +4270,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -4288,7 +4290,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -4308,7 +4310,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -4328,7 +4330,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -4348,7 +4350,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36861</v>
       </c>
@@ -4372,7 +4374,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>46</v>
       </c>
@@ -4390,7 +4392,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36892</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36923</v>
       </c>
@@ -4430,7 +4432,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36951</v>
       </c>
@@ -4450,7 +4452,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36982</v>
       </c>
@@ -4470,7 +4472,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37012</v>
       </c>
@@ -4490,7 +4492,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37043</v>
       </c>
@@ -4510,7 +4512,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37073</v>
       </c>
@@ -4530,7 +4532,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -4550,7 +4552,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37135</v>
       </c>
@@ -4570,7 +4572,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37165</v>
       </c>
@@ -4590,7 +4592,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37196</v>
       </c>
@@ -4610,7 +4612,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37226</v>
       </c>
@@ -4634,7 +4636,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
         <v>47</v>
       </c>
@@ -4652,7 +4654,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37257</v>
       </c>
@@ -4672,7 +4674,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37288</v>
       </c>
@@ -4692,7 +4694,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37316</v>
       </c>
@@ -4712,7 +4714,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37347</v>
       </c>
@@ -4732,7 +4734,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37377</v>
       </c>
@@ -4752,7 +4754,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37408</v>
       </c>
@@ -4772,7 +4774,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37438</v>
       </c>
@@ -4792,7 +4794,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37469</v>
       </c>
@@ -4812,7 +4814,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37500</v>
       </c>
@@ -4832,7 +4834,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37530</v>
       </c>
@@ -4852,7 +4854,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37561</v>
       </c>
@@ -4872,7 +4874,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37591</v>
       </c>
@@ -4896,7 +4898,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
         <v>48</v>
       </c>
@@ -4914,7 +4916,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37622</v>
       </c>
@@ -4934,7 +4936,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37653</v>
       </c>
@@ -4954,7 +4956,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37681</v>
       </c>
@@ -4974,7 +4976,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37712</v>
       </c>
@@ -4994,7 +4996,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37742</v>
       </c>
@@ -5014,7 +5016,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37773</v>
       </c>
@@ -5034,7 +5036,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37803</v>
       </c>
@@ -5054,7 +5056,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37834</v>
       </c>
@@ -5074,7 +5076,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37865</v>
       </c>
@@ -5094,7 +5096,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37895</v>
       </c>
@@ -5114,7 +5116,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37926</v>
       </c>
@@ -5134,7 +5136,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37956</v>
       </c>
@@ -5158,7 +5160,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
         <v>49</v>
       </c>
@@ -5176,7 +5178,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37987</v>
       </c>
@@ -5196,7 +5198,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38018</v>
       </c>
@@ -5216,7 +5218,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38047</v>
       </c>
@@ -5236,7 +5238,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38078</v>
       </c>
@@ -5256,7 +5258,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38108</v>
       </c>
@@ -5276,7 +5278,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5296,7 +5298,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38169</v>
       </c>
@@ -5316,7 +5318,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38200</v>
       </c>
@@ -5336,7 +5338,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38231</v>
       </c>
@@ -5360,7 +5362,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38261</v>
       </c>
@@ -5380,7 +5382,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38292</v>
       </c>
@@ -5400,7 +5402,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38322</v>
       </c>
@@ -5424,7 +5426,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>52</v>
       </c>
@@ -5442,7 +5444,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38353</v>
       </c>
@@ -5462,7 +5464,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38384</v>
       </c>
@@ -5482,7 +5484,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38412</v>
       </c>
@@ -5502,7 +5504,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38443</v>
       </c>
@@ -5522,7 +5524,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38473</v>
       </c>
@@ -5542,7 +5544,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -5562,7 +5564,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -5582,7 +5584,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -5602,7 +5604,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -5622,7 +5624,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -5642,7 +5644,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -5662,7 +5664,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38687</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>53</v>
       </c>
@@ -5704,7 +5706,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38718</v>
       </c>
@@ -5724,7 +5726,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38749</v>
       </c>
@@ -5744,7 +5746,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38777</v>
       </c>
@@ -5764,7 +5766,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38808</v>
       </c>
@@ -5784,7 +5786,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38838</v>
       </c>
@@ -5804,7 +5806,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38869</v>
       </c>
@@ -5824,7 +5826,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38899</v>
       </c>
@@ -5844,7 +5846,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38930</v>
       </c>
@@ -5864,7 +5866,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38961</v>
       </c>
@@ -5884,7 +5886,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38991</v>
       </c>
@@ -5904,7 +5906,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>39022</v>
       </c>
@@ -5924,7 +5926,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39052</v>
       </c>
@@ -5948,7 +5950,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
         <v>54</v>
       </c>
@@ -5966,7 +5968,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39083</v>
       </c>
@@ -5990,7 +5992,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>39114</v>
       </c>
@@ -6014,7 +6016,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39142</v>
       </c>
@@ -6038,7 +6040,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39173</v>
       </c>
@@ -6062,7 +6064,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39203</v>
       </c>
@@ -6086,7 +6088,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39234</v>
       </c>
@@ -6110,7 +6112,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39264</v>
       </c>
@@ -6130,7 +6132,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39295</v>
       </c>
@@ -6150,7 +6152,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39326</v>
       </c>
@@ -6170,7 +6172,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39356</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39387</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39417</v>
       </c>
@@ -6234,7 +6236,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="46" t="s">
         <v>56</v>
       </c>
@@ -6252,7 +6254,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39448</v>
       </c>
@@ -6272,7 +6274,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39479</v>
       </c>
@@ -6292,7 +6294,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39508</v>
       </c>
@@ -6312,7 +6314,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39539</v>
       </c>
@@ -6332,7 +6334,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39569</v>
       </c>
@@ -6352,7 +6354,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39600</v>
       </c>
@@ -6372,7 +6374,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39630</v>
       </c>
@@ -6392,7 +6394,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39661</v>
       </c>
@@ -6412,7 +6414,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39692</v>
       </c>
@@ -6432,7 +6434,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39722</v>
       </c>
@@ -6452,7 +6454,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39753</v>
       </c>
@@ -6472,7 +6474,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39783</v>
       </c>
@@ -6496,7 +6498,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="46" t="s">
         <v>57</v>
       </c>
@@ -6514,7 +6516,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39814</v>
       </c>
@@ -6534,7 +6536,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39845</v>
       </c>
@@ -6554,7 +6556,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39873</v>
       </c>
@@ -6578,7 +6580,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6602,7 +6604,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39934</v>
       </c>
@@ -6626,7 +6628,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39965</v>
       </c>
@@ -6646,7 +6648,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39995</v>
       </c>
@@ -6666,7 +6668,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40026</v>
       </c>
@@ -6686,7 +6688,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40057</v>
       </c>
@@ -6706,7 +6708,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40087</v>
       </c>
@@ -6726,7 +6728,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40118</v>
       </c>
@@ -6746,7 +6748,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40148</v>
       </c>
@@ -6770,7 +6772,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="46" t="s">
         <v>66</v>
       </c>
@@ -6788,7 +6790,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40179</v>
       </c>
@@ -6812,7 +6814,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40210</v>
       </c>
@@ -6836,7 +6838,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40238</v>
       </c>
@@ -6860,7 +6862,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40269</v>
       </c>
@@ -6884,7 +6886,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40299</v>
       </c>
@@ -6908,7 +6910,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40330</v>
       </c>
@@ -6932,7 +6934,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40360</v>
       </c>
@@ -6956,7 +6958,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40391</v>
       </c>
@@ -6980,7 +6982,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40422</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40452</v>
       </c>
@@ -7028,7 +7030,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40483</v>
       </c>
@@ -7052,7 +7054,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40513</v>
       </c>
@@ -7076,7 +7078,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="46" t="s">
         <v>67</v>
       </c>
@@ -7094,7 +7096,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40544</v>
       </c>
@@ -7118,7 +7120,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40575</v>
       </c>
@@ -7142,7 +7144,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40603</v>
       </c>
@@ -7168,7 +7170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>87</v>
@@ -7188,7 +7190,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40634</v>
       </c>
@@ -7212,7 +7214,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40664</v>
       </c>
@@ -7236,7 +7238,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40695</v>
       </c>
@@ -7260,7 +7262,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40725</v>
       </c>
@@ -7284,7 +7286,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40756</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>92</v>
@@ -7330,7 +7332,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="47"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40787</v>
       </c>
@@ -7354,7 +7356,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40817</v>
       </c>
@@ -7378,7 +7380,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -7402,7 +7404,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -7426,7 +7428,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>96</v>
@@ -7446,7 +7448,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>68</v>
       </c>
@@ -7464,7 +7466,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40909</v>
       </c>
@@ -7488,7 +7490,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40940</v>
       </c>
@@ -7508,7 +7510,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40969</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>44</v>
@@ -7554,7 +7556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41000</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41030</v>
       </c>
@@ -7600,7 +7602,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41061</v>
       </c>
@@ -7620,7 +7622,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41091</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>91</v>
@@ -7668,7 +7670,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41122</v>
       </c>
@@ -7688,7 +7690,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41153</v>
       </c>
@@ -7708,7 +7710,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -7728,7 +7730,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41214</v>
       </c>
@@ -7748,7 +7750,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41244</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>96</v>
@@ -7796,7 +7798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="46" t="s">
         <v>69</v>
       </c>
@@ -7814,7 +7816,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>41275</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>105</v>
@@ -7862,7 +7864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>106</v>
@@ -7882,7 +7884,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41306</v>
       </c>
@@ -7902,7 +7904,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41334</v>
       </c>
@@ -7922,7 +7924,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41365</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>110</v>
@@ -7968,7 +7970,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41395</v>
       </c>
@@ -7992,7 +7994,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41426</v>
       </c>
@@ -8016,7 +8018,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41456</v>
       </c>
@@ -8040,7 +8042,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>113</v>
@@ -8060,7 +8062,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41487</v>
       </c>
@@ -8086,7 +8088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>116</v>
@@ -8106,7 +8108,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41518</v>
       </c>
@@ -8132,7 +8134,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>91</v>
@@ -8154,7 +8156,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>117</v>
@@ -8176,7 +8178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>118</v>
@@ -8196,7 +8198,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41548</v>
       </c>
@@ -8222,7 +8224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>122</v>
@@ -8242,7 +8244,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41579</v>
       </c>
@@ -8266,7 +8268,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41609</v>
       </c>
@@ -8292,7 +8294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>98</v>
@@ -8312,7 +8314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>125</v>
@@ -8332,7 +8334,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="46" t="s">
         <v>131</v>
       </c>
@@ -8350,7 +8352,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41640</v>
       </c>
@@ -8374,7 +8376,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41671</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>96</v>
@@ -8422,7 +8424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>134</v>
@@ -8442,7 +8444,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41699</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>91</v>
@@ -8486,7 +8488,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>136</v>
@@ -8506,7 +8508,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41730</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>96</v>
@@ -8554,7 +8556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -8574,7 +8576,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41760</v>
       </c>
@@ -8598,7 +8600,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41791</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8644,7 +8646,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41821</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>144</v>
@@ -8690,7 +8692,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41852</v>
       </c>
@@ -8716,7 +8718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>146</v>
@@ -8736,7 +8738,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41883</v>
       </c>
@@ -8760,7 +8762,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41913</v>
       </c>
@@ -8784,7 +8786,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41944</v>
       </c>
@@ -8808,7 +8810,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41974</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>151</v>
@@ -8854,7 +8856,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>128</v>
       </c>
@@ -8872,7 +8874,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42005</v>
       </c>
@@ -8896,7 +8898,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42036</v>
       </c>
@@ -8922,7 +8924,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>109</v>
@@ -8944,7 +8946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>153</v>
@@ -8964,7 +8966,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42064</v>
       </c>
@@ -8988,7 +8990,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>109</v>
@@ -9010,7 +9012,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42095</v>
       </c>
@@ -9036,7 +9038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>159</v>
@@ -9056,7 +9058,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42125</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>160</v>
@@ -9102,7 +9104,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9122,7 +9124,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42156</v>
       </c>
@@ -9146,7 +9148,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42186</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>166</v>
@@ -9192,7 +9194,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42217</v>
       </c>
@@ -9216,7 +9218,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>109</v>
@@ -9238,7 +9240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9262,7 +9264,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>42282</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>91</v>
@@ -9310,7 +9312,7 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>171</v>
@@ -9332,7 +9334,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>109</v>
@@ -9354,7 +9356,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9374,7 +9376,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42309</v>
       </c>
@@ -9398,7 +9400,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42339</v>
       </c>
@@ -9422,7 +9424,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="46" t="s">
         <v>129</v>
       </c>
@@ -9440,7 +9442,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42370</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>177</v>
@@ -9486,7 +9488,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>91</v>
@@ -9508,7 +9510,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42401</v>
       </c>
@@ -9534,7 +9536,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>109</v>
@@ -9556,7 +9558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>179</v>
@@ -9576,7 +9578,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42430</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>184</v>
@@ -9622,7 +9624,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>91</v>
@@ -9644,7 +9646,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42461</v>
       </c>
@@ -9668,7 +9670,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42491</v>
       </c>
@@ -9694,7 +9696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>171</v>
@@ -9716,7 +9718,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>186</v>
@@ -9736,7 +9738,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -9760,7 +9762,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>117</v>
@@ -9782,7 +9784,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42552</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>117</v>
@@ -9830,7 +9832,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>91</v>
@@ -9852,7 +9854,7 @@
         <v>42573</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>191</v>
@@ -9872,7 +9874,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42583</v>
       </c>
@@ -9898,7 +9900,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>91</v>
@@ -9920,7 +9922,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>109</v>
@@ -9942,7 +9944,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42614</v>
       </c>
@@ -9962,7 +9964,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42644</v>
       </c>
@@ -9982,7 +9984,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42675</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>109</v>
@@ -10030,7 +10032,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>91</v>
@@ -10052,7 +10054,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42705</v>
       </c>
@@ -10072,7 +10074,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="46" t="s">
         <v>130</v>
       </c>
@@ -10090,7 +10092,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42736</v>
       </c>
@@ -10110,7 +10112,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42767</v>
       </c>
@@ -10136,7 +10138,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42795</v>
       </c>
@@ -10156,7 +10158,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42826</v>
       </c>
@@ -10180,7 +10182,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42856</v>
       </c>
@@ -10200,7 +10202,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42887</v>
       </c>
@@ -10220,7 +10222,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42917</v>
       </c>
@@ -10240,7 +10242,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42948</v>
       </c>
@@ -10260,7 +10262,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>42979</v>
       </c>
@@ -10286,7 +10288,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -10332,7 +10334,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -10356,7 +10358,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="46" t="s">
         <v>196</v>
       </c>
@@ -10374,7 +10376,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10394,7 +10396,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43132</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43160</v>
       </c>
@@ -10440,7 +10442,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43191</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43221</v>
       </c>
@@ -10492,7 +10494,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>109</v>
@@ -10514,7 +10516,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -10534,7 +10536,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -10560,7 +10562,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43313</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43344</v>
       </c>
@@ -10606,7 +10608,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43374</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>91</v>
@@ -10654,7 +10656,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43405</v>
       </c>
@@ -10674,7 +10676,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43435</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>203</v>
@@ -10722,7 +10724,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>98</v>
@@ -10742,7 +10744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
         <v>197</v>
       </c>
@@ -10760,7 +10762,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43466</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43497</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43525</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -10858,7 +10860,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43556</v>
       </c>
@@ -10884,7 +10886,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>91</v>
@@ -10906,7 +10908,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43586</v>
       </c>
@@ -10932,7 +10934,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43617</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>91</v>
@@ -10980,7 +10982,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>109</v>
@@ -11002,7 +11004,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43647</v>
       </c>
@@ -11022,7 +11024,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43678</v>
       </c>
@@ -11042,7 +11044,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43709</v>
       </c>
@@ -11062,7 +11064,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43739</v>
       </c>
@@ -11082,7 +11084,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43770</v>
       </c>
@@ -11102,7 +11104,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43800</v>
       </c>
@@ -11128,7 +11130,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
         <v>198</v>
       </c>
@@ -11146,7 +11148,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43831</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43862</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43891</v>
       </c>
@@ -11216,7 +11218,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43922</v>
       </c>
@@ -11236,7 +11238,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43952</v>
       </c>
@@ -11256,7 +11258,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43983</v>
       </c>
@@ -11276,7 +11278,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44013</v>
       </c>
@@ -11296,7 +11298,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44044</v>
       </c>
@@ -11316,7 +11318,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44075</v>
       </c>
@@ -11342,7 +11344,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44105</v>
       </c>
@@ -11362,7 +11364,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44136</v>
       </c>
@@ -11382,7 +11384,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44166</v>
       </c>
@@ -11408,7 +11410,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="46" t="s">
         <v>199</v>
       </c>
@@ -11426,7 +11428,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44197</v>
       </c>
@@ -11446,7 +11448,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44228</v>
       </c>
@@ -11466,7 +11468,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44256</v>
       </c>
@@ -11486,7 +11488,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44287</v>
       </c>
@@ -11506,7 +11508,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44317</v>
       </c>
@@ -11526,7 +11528,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44348</v>
       </c>
@@ -11546,7 +11548,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44378</v>
       </c>
@@ -11566,7 +11568,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44409</v>
       </c>
@@ -11586,7 +11588,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44440</v>
       </c>
@@ -11606,7 +11608,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44470</v>
       </c>
@@ -11626,7 +11628,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44501</v>
       </c>
@@ -11646,7 +11648,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44531</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="46" t="s">
         <v>220</v>
       </c>
@@ -11690,7 +11692,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44562</v>
       </c>
@@ -11710,7 +11712,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44593</v>
       </c>
@@ -11730,7 +11732,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44621</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44652</v>
       </c>
@@ -11776,7 +11778,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44682</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>44698</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>91</v>
@@ -11824,7 +11826,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>91</v>
@@ -11846,7 +11848,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>200</v>
@@ -11866,7 +11868,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -11912,7 +11914,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -11932,7 +11934,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44805</v>
       </c>
@@ -11956,7 +11958,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44835</v>
@@ -11983,7 +11985,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>109</v>
@@ -12005,7 +12007,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>44866</v>
@@ -12032,7 +12034,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" ref="A395:A398" si="0">EDATE(A394,1)</f>
         <v>44896</v>
@@ -12059,7 +12061,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="46" t="s">
         <v>224</v>
       </c>
@@ -12077,7 +12079,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>44927</v>
@@ -12098,7 +12100,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="0"/>
         <v>44958</v>
@@ -12123,7 +12125,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>91</v>
@@ -12145,27 +12147,37 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>44986</v>
       </c>
-      <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
+      <c r="B400" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H400" s="39"/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H400" s="39">
+        <v>5</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A401" s="40"/>
+      <c r="K400" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="40">
+        <v>45017</v>
+      </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -12180,7 +12192,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12196,7 +12208,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12212,7 +12224,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12228,7 +12240,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12244,7 +12256,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12260,7 +12272,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12276,7 +12288,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12292,7 +12304,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12308,7 +12320,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12324,7 +12336,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12340,7 +12352,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12356,7 +12368,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="51"/>
       <c r="B413" s="15"/>
       <c r="C413" s="41"/>
@@ -12387,10 +12399,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12413,7 +12425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12421,21 +12433,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12448,7 +12460,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12477,7 +12489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.183</v>
       </c>
@@ -12505,17 +12517,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12536,7 +12548,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12563,7 +12575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12589,7 +12601,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12615,7 +12627,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12641,7 +12653,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12667,7 +12679,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12693,7 +12705,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12719,7 +12731,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12745,7 +12757,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12765,7 +12777,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12785,7 +12797,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12805,7 +12817,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12826,7 +12838,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12847,7 +12859,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12868,7 +12880,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12889,7 +12901,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12910,7 +12922,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12931,7 +12943,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12952,7 +12964,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12973,7 +12985,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12994,7 +13006,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13015,7 +13027,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13036,7 +13048,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13057,7 +13069,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13078,7 +13090,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13099,7 +13111,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13120,7 +13132,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13141,7 +13153,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13162,7 +13174,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13183,7 +13195,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13204,7 +13216,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13225,7 +13237,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13234,7 +13246,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13243,7 +13255,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13252,7 +13264,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13261,7 +13273,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13270,7 +13282,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13279,7 +13291,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13288,7 +13300,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13297,7 +13309,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13306,7 +13318,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13315,7 +13327,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13324,7 +13336,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13333,7 +13345,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13342,7 +13354,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13351,7 +13363,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13360,7 +13372,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13369,7 +13381,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13378,7 +13390,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13387,7 +13399,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13396,7 +13408,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13405,7 +13417,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13414,7 +13426,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13423,7 +13435,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13432,7 +13444,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13441,7 +13453,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13450,7 +13462,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13459,7 +13471,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13468,7 +13480,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13477,7 +13489,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13486,7 +13498,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47119B-F63F-4230-BBE9-2BC7EC7D0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="232">
   <si>
     <t>PERIOD</t>
   </si>
@@ -727,12 +728,15 @@
   </si>
   <si>
     <t>3/14-18/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1610,7 +1614,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1657,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1721,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1781,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1847,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1910,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2008,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2067,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2132,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2175,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2250,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2436,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2502,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2560,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2626,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2682,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2757,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2800,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2866,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2922,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3020,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3083,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,25 +3149,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3175,13 +3179,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3190,14 +3194,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3501,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3511,7 +3515,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3519,34 +3523,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A390" activePane="bottomLeft"/>
+      <pane ySplit="3660" topLeftCell="A397" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3571,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3611,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3615,7 +3619,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3628,7 +3632,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3645,7 +3649,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3689,7 +3693,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.87099999999998</v>
+        <v>101.87099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3704,7 +3708,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -3726,7 +3730,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -3746,7 +3750,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -3766,7 +3770,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -3786,7 +3790,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -3806,7 +3810,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36100</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36130</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>43</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36161</v>
       </c>
@@ -3888,7 +3892,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36192</v>
       </c>
@@ -3908,7 +3912,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36220</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36251</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36281</v>
       </c>
@@ -3968,7 +3972,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36312</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36342</v>
       </c>
@@ -4008,7 +4012,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36373</v>
       </c>
@@ -4028,7 +4032,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36404</v>
       </c>
@@ -4048,7 +4052,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36434</v>
       </c>
@@ -4068,7 +4072,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36465</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36495</v>
       </c>
@@ -4112,7 +4116,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>45</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36526</v>
       </c>
@@ -4150,7 +4154,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36557</v>
       </c>
@@ -4170,7 +4174,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36586</v>
       </c>
@@ -4190,7 +4194,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36617</v>
       </c>
@@ -4210,7 +4214,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36647</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36678</v>
       </c>
@@ -4250,7 +4254,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -4270,7 +4274,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -4290,7 +4294,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -4310,7 +4314,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -4330,7 +4334,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -4350,7 +4354,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36861</v>
       </c>
@@ -4374,7 +4378,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>46</v>
       </c>
@@ -4392,7 +4396,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36892</v>
       </c>
@@ -4412,7 +4416,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36923</v>
       </c>
@@ -4432,7 +4436,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36951</v>
       </c>
@@ -4452,7 +4456,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36982</v>
       </c>
@@ -4472,7 +4476,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37012</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37043</v>
       </c>
@@ -4512,7 +4516,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37073</v>
       </c>
@@ -4532,7 +4536,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -4552,7 +4556,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37135</v>
       </c>
@@ -4572,7 +4576,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37165</v>
       </c>
@@ -4592,7 +4596,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37196</v>
       </c>
@@ -4612,7 +4616,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37226</v>
       </c>
@@ -4636,7 +4640,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>47</v>
       </c>
@@ -4654,7 +4658,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37257</v>
       </c>
@@ -4674,7 +4678,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>37288</v>
       </c>
@@ -4694,7 +4698,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37316</v>
       </c>
@@ -4714,7 +4718,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37347</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37377</v>
       </c>
@@ -4754,7 +4758,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37408</v>
       </c>
@@ -4774,7 +4778,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37438</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37469</v>
       </c>
@@ -4814,7 +4818,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37500</v>
       </c>
@@ -4834,7 +4838,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37530</v>
       </c>
@@ -4854,7 +4858,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37561</v>
       </c>
@@ -4874,7 +4878,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37591</v>
       </c>
@@ -4898,7 +4902,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="46" t="s">
         <v>48</v>
       </c>
@@ -4916,7 +4920,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37622</v>
       </c>
@@ -4936,7 +4940,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37653</v>
       </c>
@@ -4956,7 +4960,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37681</v>
       </c>
@@ -4976,7 +4980,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37712</v>
       </c>
@@ -4996,7 +5000,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37742</v>
       </c>
@@ -5016,7 +5020,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37773</v>
       </c>
@@ -5036,7 +5040,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37803</v>
       </c>
@@ -5056,7 +5060,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37834</v>
       </c>
@@ -5076,7 +5080,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37865</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37895</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37926</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37956</v>
       </c>
@@ -5160,7 +5164,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="46" t="s">
         <v>49</v>
       </c>
@@ -5178,7 +5182,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37987</v>
       </c>
@@ -5198,7 +5202,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38018</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38047</v>
       </c>
@@ -5238,7 +5242,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38078</v>
       </c>
@@ -5258,7 +5262,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>38108</v>
       </c>
@@ -5278,7 +5282,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>38169</v>
       </c>
@@ -5318,7 +5322,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38200</v>
       </c>
@@ -5338,7 +5342,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38231</v>
       </c>
@@ -5362,7 +5366,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38261</v>
       </c>
@@ -5382,7 +5386,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38292</v>
       </c>
@@ -5402,7 +5406,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38322</v>
       </c>
@@ -5426,7 +5430,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>52</v>
       </c>
@@ -5444,7 +5448,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38353</v>
       </c>
@@ -5464,7 +5468,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>38384</v>
       </c>
@@ -5484,7 +5488,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38412</v>
       </c>
@@ -5504,7 +5508,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38443</v>
       </c>
@@ -5524,7 +5528,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>38473</v>
       </c>
@@ -5544,7 +5548,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -5564,7 +5568,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -5584,7 +5588,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -5604,7 +5608,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -5624,7 +5628,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -5644,7 +5648,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -5664,7 +5668,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38687</v>
       </c>
@@ -5688,7 +5692,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="46" t="s">
         <v>53</v>
       </c>
@@ -5706,7 +5710,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38718</v>
       </c>
@@ -5726,7 +5730,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38749</v>
       </c>
@@ -5746,7 +5750,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>38777</v>
       </c>
@@ -5766,7 +5770,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38808</v>
       </c>
@@ -5786,7 +5790,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38838</v>
       </c>
@@ -5806,7 +5810,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>38869</v>
       </c>
@@ -5826,7 +5830,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38899</v>
       </c>
@@ -5846,7 +5850,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38930</v>
       </c>
@@ -5866,7 +5870,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38961</v>
       </c>
@@ -5886,7 +5890,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38991</v>
       </c>
@@ -5906,7 +5910,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>39022</v>
       </c>
@@ -5926,7 +5930,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>39052</v>
       </c>
@@ -5950,7 +5954,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="46" t="s">
         <v>54</v>
       </c>
@@ -5968,7 +5972,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39083</v>
       </c>
@@ -5992,7 +5996,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>39114</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>39142</v>
       </c>
@@ -6040,7 +6044,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39173</v>
       </c>
@@ -6064,7 +6068,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39203</v>
       </c>
@@ -6088,7 +6092,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>39234</v>
       </c>
@@ -6112,7 +6116,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39264</v>
       </c>
@@ -6132,7 +6136,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39295</v>
       </c>
@@ -6152,7 +6156,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>39326</v>
       </c>
@@ -6172,7 +6176,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39356</v>
       </c>
@@ -6192,7 +6196,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39387</v>
       </c>
@@ -6212,7 +6216,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39417</v>
       </c>
@@ -6236,7 +6240,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="46" t="s">
         <v>56</v>
       </c>
@@ -6254,7 +6258,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39448</v>
       </c>
@@ -6274,7 +6278,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39479</v>
       </c>
@@ -6294,7 +6298,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>39508</v>
       </c>
@@ -6314,7 +6318,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39539</v>
       </c>
@@ -6334,7 +6338,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39569</v>
       </c>
@@ -6354,7 +6358,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39600</v>
       </c>
@@ -6374,7 +6378,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39630</v>
       </c>
@@ -6394,7 +6398,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39661</v>
       </c>
@@ -6414,7 +6418,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39692</v>
       </c>
@@ -6434,7 +6438,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39722</v>
       </c>
@@ -6454,7 +6458,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39753</v>
       </c>
@@ -6474,7 +6478,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39783</v>
       </c>
@@ -6498,7 +6502,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="46" t="s">
         <v>57</v>
       </c>
@@ -6516,7 +6520,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39814</v>
       </c>
@@ -6536,7 +6540,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39845</v>
       </c>
@@ -6556,7 +6560,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39873</v>
       </c>
@@ -6580,7 +6584,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6604,7 +6608,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39934</v>
       </c>
@@ -6628,7 +6632,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39965</v>
       </c>
@@ -6648,7 +6652,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39995</v>
       </c>
@@ -6668,7 +6672,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>40026</v>
       </c>
@@ -6688,7 +6692,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>40057</v>
       </c>
@@ -6708,7 +6712,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>40087</v>
       </c>
@@ -6728,7 +6732,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>40118</v>
       </c>
@@ -6748,7 +6752,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40148</v>
       </c>
@@ -6772,7 +6776,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="46" t="s">
         <v>66</v>
       </c>
@@ -6790,7 +6794,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40179</v>
       </c>
@@ -6814,7 +6818,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40210</v>
       </c>
@@ -6838,7 +6842,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40238</v>
       </c>
@@ -6862,7 +6866,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>40269</v>
       </c>
@@ -6886,7 +6890,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40299</v>
       </c>
@@ -6910,7 +6914,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40330</v>
       </c>
@@ -6934,7 +6938,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>40360</v>
       </c>
@@ -6958,7 +6962,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40391</v>
       </c>
@@ -6982,7 +6986,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>40422</v>
       </c>
@@ -7006,7 +7010,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40452</v>
       </c>
@@ -7030,7 +7034,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>40483</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40513</v>
       </c>
@@ -7078,7 +7082,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
         <v>67</v>
       </c>
@@ -7096,7 +7100,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>40544</v>
       </c>
@@ -7120,7 +7124,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>40575</v>
       </c>
@@ -7144,7 +7148,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>40603</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>87</v>
@@ -7190,7 +7194,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40634</v>
       </c>
@@ -7214,7 +7218,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40664</v>
       </c>
@@ -7238,7 +7242,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40695</v>
       </c>
@@ -7262,7 +7266,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40725</v>
       </c>
@@ -7286,7 +7290,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40756</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>92</v>
@@ -7332,7 +7336,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="47"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40787</v>
       </c>
@@ -7356,7 +7360,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40817</v>
       </c>
@@ -7380,7 +7384,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -7404,7 +7408,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -7428,7 +7432,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>96</v>
@@ -7448,7 +7452,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="46" t="s">
         <v>68</v>
       </c>
@@ -7466,7 +7470,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40909</v>
       </c>
@@ -7490,7 +7494,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>40940</v>
       </c>
@@ -7510,7 +7514,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40969</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>44</v>
@@ -7556,7 +7560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41000</v>
       </c>
@@ -7582,7 +7586,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>41030</v>
       </c>
@@ -7602,7 +7606,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41061</v>
       </c>
@@ -7622,7 +7626,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>41091</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>91</v>
@@ -7670,7 +7674,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>41122</v>
       </c>
@@ -7690,7 +7694,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>41153</v>
       </c>
@@ -7710,7 +7714,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -7730,7 +7734,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>41214</v>
       </c>
@@ -7750,7 +7754,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41244</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>96</v>
@@ -7798,7 +7802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="46" t="s">
         <v>69</v>
       </c>
@@ -7816,7 +7820,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>41275</v>
       </c>
@@ -7842,7 +7846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>105</v>
@@ -7864,7 +7868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>106</v>
@@ -7884,7 +7888,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>41306</v>
       </c>
@@ -7904,7 +7908,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41334</v>
       </c>
@@ -7924,7 +7928,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41365</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>110</v>
@@ -7970,7 +7974,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41395</v>
       </c>
@@ -7994,7 +7998,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41426</v>
       </c>
@@ -8018,7 +8022,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41456</v>
       </c>
@@ -8042,7 +8046,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>113</v>
@@ -8062,7 +8066,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>41487</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>116</v>
@@ -8108,7 +8112,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41518</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>91</v>
@@ -8156,7 +8160,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>117</v>
@@ -8178,7 +8182,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>118</v>
@@ -8198,7 +8202,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41548</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>122</v>
@@ -8244,7 +8248,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>41579</v>
       </c>
@@ -8268,7 +8272,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41609</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>98</v>
@@ -8314,7 +8318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>125</v>
@@ -8334,7 +8338,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="46" t="s">
         <v>131</v>
       </c>
@@ -8352,7 +8356,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41640</v>
       </c>
@@ -8376,7 +8380,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>41671</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>96</v>
@@ -8424,7 +8428,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>134</v>
@@ -8444,7 +8448,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>41699</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>91</v>
@@ -8488,7 +8492,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>136</v>
@@ -8508,7 +8512,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>41730</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>96</v>
@@ -8556,7 +8560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -8576,7 +8580,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>41760</v>
       </c>
@@ -8600,7 +8604,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>41791</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8646,7 +8650,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>41821</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>144</v>
@@ -8692,7 +8696,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41852</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>146</v>
@@ -8738,7 +8742,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>41883</v>
       </c>
@@ -8762,7 +8766,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>41913</v>
       </c>
@@ -8786,7 +8790,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>41944</v>
       </c>
@@ -8810,7 +8814,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>41974</v>
       </c>
@@ -8836,7 +8840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>151</v>
@@ -8856,7 +8860,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="46" t="s">
         <v>128</v>
       </c>
@@ -8874,7 +8878,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>42005</v>
       </c>
@@ -8898,7 +8902,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42036</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>109</v>
@@ -8946,7 +8950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>153</v>
@@ -8966,7 +8970,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42064</v>
       </c>
@@ -8990,7 +8994,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>109</v>
@@ -9012,7 +9016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42095</v>
       </c>
@@ -9038,7 +9042,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>159</v>
@@ -9058,7 +9062,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42125</v>
       </c>
@@ -9082,7 +9086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>160</v>
@@ -9104,7 +9108,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9124,7 +9128,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42156</v>
       </c>
@@ -9148,7 +9152,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>42186</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>166</v>
@@ -9194,7 +9198,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42217</v>
       </c>
@@ -9218,7 +9222,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>109</v>
@@ -9240,7 +9244,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9264,7 +9268,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9290,7 +9294,7 @@
         <v>42282</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>91</v>
@@ -9312,7 +9316,7 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>171</v>
@@ -9334,7 +9338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>109</v>
@@ -9356,7 +9360,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9376,7 +9380,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>42309</v>
       </c>
@@ -9400,7 +9404,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>42339</v>
       </c>
@@ -9424,7 +9428,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="46" t="s">
         <v>129</v>
       </c>
@@ -9442,7 +9446,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42370</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>177</v>
@@ -9488,7 +9492,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>91</v>
@@ -9510,7 +9514,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>42401</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>109</v>
@@ -9558,7 +9562,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>179</v>
@@ -9578,7 +9582,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42430</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>184</v>
@@ -9624,7 +9628,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>91</v>
@@ -9646,7 +9650,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42461</v>
       </c>
@@ -9670,7 +9674,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>42491</v>
       </c>
@@ -9696,7 +9700,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>171</v>
@@ -9718,7 +9722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>186</v>
@@ -9738,7 +9742,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -9762,7 +9766,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>117</v>
@@ -9784,7 +9788,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42552</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>117</v>
@@ -9832,7 +9836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>91</v>
@@ -9854,7 +9858,7 @@
         <v>42573</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>191</v>
@@ -9874,7 +9878,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>42583</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>91</v>
@@ -9922,7 +9926,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>109</v>
@@ -9944,7 +9948,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>42614</v>
       </c>
@@ -9964,7 +9968,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>42644</v>
       </c>
@@ -9984,7 +9988,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>42675</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>109</v>
@@ -10032,7 +10036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>91</v>
@@ -10054,7 +10058,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>42705</v>
       </c>
@@ -10074,7 +10078,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="46" t="s">
         <v>130</v>
       </c>
@@ -10092,7 +10096,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>42736</v>
       </c>
@@ -10112,7 +10116,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>42767</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>42795</v>
       </c>
@@ -10158,7 +10162,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>42826</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>42856</v>
       </c>
@@ -10202,7 +10206,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>42887</v>
       </c>
@@ -10222,7 +10226,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>42917</v>
       </c>
@@ -10242,7 +10246,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>42948</v>
       </c>
@@ -10262,7 +10266,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>42979</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -10334,7 +10338,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -10358,7 +10362,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="46" t="s">
         <v>196</v>
       </c>
@@ -10376,7 +10380,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10396,7 +10400,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43132</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43160</v>
       </c>
@@ -10442,7 +10446,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43191</v>
       </c>
@@ -10468,7 +10472,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43221</v>
       </c>
@@ -10494,7 +10498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>109</v>
@@ -10516,7 +10520,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -10536,7 +10540,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>43313</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43344</v>
       </c>
@@ -10608,7 +10612,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43374</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>91</v>
@@ -10656,7 +10660,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>43405</v>
       </c>
@@ -10676,7 +10680,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43435</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>203</v>
@@ -10724,7 +10728,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>98</v>
@@ -10744,7 +10748,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="46" t="s">
         <v>197</v>
       </c>
@@ -10762,7 +10766,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43466</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43497</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>43525</v>
       </c>
@@ -10838,7 +10842,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -10860,7 +10864,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>43556</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>91</v>
@@ -10908,7 +10912,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43586</v>
       </c>
@@ -10934,7 +10938,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>43617</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>91</v>
@@ -10982,7 +10986,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>109</v>
@@ -11004,7 +11008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>43647</v>
       </c>
@@ -11024,7 +11028,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>43678</v>
       </c>
@@ -11044,7 +11048,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43709</v>
       </c>
@@ -11064,7 +11068,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>43739</v>
       </c>
@@ -11084,7 +11088,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>43770</v>
       </c>
@@ -11104,7 +11108,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>43800</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="46" t="s">
         <v>198</v>
       </c>
@@ -11148,7 +11152,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43831</v>
       </c>
@@ -11172,7 +11176,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43862</v>
       </c>
@@ -11198,7 +11202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>43891</v>
       </c>
@@ -11218,7 +11222,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>43922</v>
       </c>
@@ -11238,7 +11242,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>43952</v>
       </c>
@@ -11258,7 +11262,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>43983</v>
       </c>
@@ -11278,7 +11282,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44013</v>
       </c>
@@ -11298,7 +11302,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44044</v>
       </c>
@@ -11318,7 +11322,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44075</v>
       </c>
@@ -11344,7 +11348,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44105</v>
       </c>
@@ -11364,7 +11368,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44136</v>
       </c>
@@ -11384,7 +11388,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44166</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="46" t="s">
         <v>199</v>
       </c>
@@ -11428,7 +11432,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44197</v>
       </c>
@@ -11448,7 +11452,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44228</v>
       </c>
@@ -11468,7 +11472,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44256</v>
       </c>
@@ -11488,7 +11492,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44287</v>
       </c>
@@ -11508,7 +11512,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44317</v>
       </c>
@@ -11528,7 +11532,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44348</v>
       </c>
@@ -11548,7 +11552,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44378</v>
       </c>
@@ -11568,7 +11572,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44409</v>
       </c>
@@ -11588,7 +11592,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44440</v>
       </c>
@@ -11608,7 +11612,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44470</v>
       </c>
@@ -11628,7 +11632,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>44501</v>
       </c>
@@ -11648,7 +11652,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44531</v>
       </c>
@@ -11674,7 +11678,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="46" t="s">
         <v>220</v>
       </c>
@@ -11692,7 +11696,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>44562</v>
       </c>
@@ -11712,7 +11716,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>44593</v>
       </c>
@@ -11732,7 +11736,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44621</v>
       </c>
@@ -11758,7 +11762,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44652</v>
       </c>
@@ -11778,7 +11782,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>44682</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>44698</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>91</v>
@@ -11826,7 +11830,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>91</v>
@@ -11848,7 +11852,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>200</v>
@@ -11868,7 +11872,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -11914,7 +11918,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -11934,7 +11938,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>44805</v>
       </c>
@@ -11958,7 +11962,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44835</v>
@@ -11985,7 +11989,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>109</v>
@@ -12007,7 +12011,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>44866</v>
@@ -12034,7 +12038,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" ref="A395:A398" si="0">EDATE(A394,1)</f>
         <v>44896</v>
@@ -12061,7 +12065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="46" t="s">
         <v>224</v>
       </c>
@@ -12079,7 +12083,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>44927</v>
@@ -12100,7 +12104,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="0"/>
         <v>44958</v>
@@ -12125,7 +12129,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>91</v>
@@ -12147,7 +12151,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>44986</v>
@@ -12174,11 +12178,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>45017</v>
       </c>
-      <c r="B401" s="20"/>
+      <c r="B401" s="20" t="s">
+        <v>231</v>
+      </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
@@ -12190,13 +12196,19 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K401" s="47">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="C402" s="13"/>
-      <c r="D402" s="39"/>
+      <c r="D402" s="39">
+        <v>1</v>
+      </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="13" t="str">
@@ -12206,9 +12218,11 @@
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K402" s="47">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12224,7 +12238,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12240,7 +12254,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12256,7 +12270,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12272,7 +12286,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12288,7 +12302,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12304,7 +12318,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12320,7 +12334,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12336,7 +12350,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12352,7 +12366,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12368,7 +12382,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="51"/>
       <c r="B413" s="15"/>
       <c r="C413" s="41"/>
@@ -12399,10 +12413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12425,7 +12439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12433,21 +12447,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12460,7 +12474,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12489,7 +12503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>11.183</v>
       </c>
@@ -12517,17 +12531,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12548,7 +12562,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12575,7 +12589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12601,7 +12615,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12627,7 +12641,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12653,7 +12667,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12679,7 +12693,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12705,7 +12719,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12731,7 +12745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12757,7 +12771,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12777,7 +12791,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12797,7 +12811,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12817,7 +12831,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12838,7 +12852,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12859,7 +12873,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12880,7 +12894,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12901,7 +12915,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12922,7 +12936,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12943,7 +12957,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12964,7 +12978,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12985,7 +12999,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13006,7 +13020,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13027,7 +13041,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13048,7 +13062,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13069,7 +13083,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13090,7 +13104,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13111,7 +13125,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13132,7 +13146,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13153,7 +13167,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13174,7 +13188,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13195,7 +13209,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13216,7 +13230,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13237,7 +13251,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13246,7 +13260,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13255,7 +13269,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13264,7 +13278,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13273,7 +13287,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13282,7 +13296,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13291,7 +13305,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13300,7 +13314,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13309,7 +13323,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13318,7 +13332,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13327,7 +13341,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13336,7 +13350,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13345,7 +13359,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13354,7 +13368,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13363,7 +13377,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13372,7 +13386,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13381,7 +13395,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13390,7 +13404,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13399,7 +13413,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13408,7 +13422,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13417,7 +13431,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13426,7 +13440,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13435,7 +13449,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13444,7 +13458,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13453,7 +13467,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13462,7 +13476,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13471,7 +13485,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13480,7 +13494,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13489,7 +13503,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13498,7 +13512,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47119B-F63F-4230-BBE9-2BC7EC7D0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BBE9E-8803-4BCE-910A-A14C1B4B2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
   <si>
     <t>PERIOD</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3135,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3150,6 +3153,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K413" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3530,9 +3534,9 @@
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A397" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
+      <pane ySplit="3660" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3693,7 +3697,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>101.87099999999998</v>
+        <v>102.87099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3703,7 +3707,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>264.31</v>
+        <v>262.31</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8485,7 +8489,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H235" s="39"/>
+      <c r="H235" s="39">
+        <v>1</v>
+      </c>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="47">
@@ -8934,16 +8940,16 @@
         <v>109</v>
       </c>
       <c r="C255" s="13"/>
-      <c r="D255" s="39">
-        <v>2</v>
-      </c>
+      <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
       <c r="G255" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H255" s="39"/>
+      <c r="H255" s="39">
+        <v>2</v>
+      </c>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
@@ -10302,16 +10308,16 @@
       <c r="C316" s="13">
         <v>1.25</v>
       </c>
-      <c r="D316" s="39"/>
+      <c r="D316" s="39">
+        <v>1</v>
+      </c>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
       <c r="G316" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H316" s="39">
-        <v>1</v>
-      </c>
+      <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="47">
@@ -12444,7 +12450,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12542,6 +12548,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>232</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12563,6 +12572,10 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>365.18099999999998</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BBE9E-8803-4BCE-910A-A14C1B4B2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="233">
   <si>
     <t>PERIOD</t>
   </si>
@@ -739,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1617,7 +1616,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1659,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1723,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1783,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1849,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1912,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2010,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2069,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2134,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2177,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2252,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2438,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2504,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2562,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2628,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2684,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2759,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2802,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2868,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2924,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3022,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3085,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3134,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3152,26 +3151,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K413" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3183,13 +3181,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3198,14 +3196,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3509,7 +3507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3519,7 +3517,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3527,34 +3525,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane ySplit="3660" topLeftCell="A389" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H316" sqref="H316"/>
+      <selection pane="bottomLeft" activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +3573,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3591,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3613,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3623,7 +3621,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3636,7 +3634,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3653,7 +3651,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3707,12 +3705,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>262.31</v>
+        <v>261.31</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -3734,7 +3732,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -3754,7 +3752,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -3774,7 +3772,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -3794,7 +3792,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -3814,7 +3812,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36100</v>
       </c>
@@ -3834,7 +3832,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36130</v>
       </c>
@@ -3858,7 +3856,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>43</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36161</v>
       </c>
@@ -3896,7 +3894,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36192</v>
       </c>
@@ -3916,7 +3914,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36220</v>
       </c>
@@ -3936,7 +3934,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36251</v>
       </c>
@@ -3956,7 +3954,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36281</v>
       </c>
@@ -3976,7 +3974,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36312</v>
       </c>
@@ -3996,7 +3994,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36342</v>
       </c>
@@ -4016,7 +4014,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36373</v>
       </c>
@@ -4036,7 +4034,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36404</v>
       </c>
@@ -4056,7 +4054,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36434</v>
       </c>
@@ -4076,7 +4074,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36465</v>
       </c>
@@ -4096,7 +4094,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36495</v>
       </c>
@@ -4120,7 +4118,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>45</v>
       </c>
@@ -4138,7 +4136,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36526</v>
       </c>
@@ -4158,7 +4156,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36557</v>
       </c>
@@ -4178,7 +4176,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36586</v>
       </c>
@@ -4198,7 +4196,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36617</v>
       </c>
@@ -4218,7 +4216,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36647</v>
       </c>
@@ -4238,7 +4236,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36678</v>
       </c>
@@ -4258,7 +4256,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -4278,7 +4276,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -4298,7 +4296,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -4318,7 +4316,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -4338,7 +4336,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -4358,7 +4356,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36861</v>
       </c>
@@ -4382,7 +4380,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>46</v>
       </c>
@@ -4400,7 +4398,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36892</v>
       </c>
@@ -4420,7 +4418,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36923</v>
       </c>
@@ -4440,7 +4438,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36951</v>
       </c>
@@ -4460,7 +4458,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36982</v>
       </c>
@@ -4480,7 +4478,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37012</v>
       </c>
@@ -4500,7 +4498,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37043</v>
       </c>
@@ -4520,7 +4518,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37073</v>
       </c>
@@ -4540,7 +4538,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -4560,7 +4558,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37135</v>
       </c>
@@ -4580,7 +4578,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37165</v>
       </c>
@@ -4600,7 +4598,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37196</v>
       </c>
@@ -4620,7 +4618,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37226</v>
       </c>
@@ -4644,7 +4642,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
         <v>47</v>
       </c>
@@ -4662,7 +4660,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37257</v>
       </c>
@@ -4682,7 +4680,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37288</v>
       </c>
@@ -4702,7 +4700,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37316</v>
       </c>
@@ -4722,7 +4720,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37347</v>
       </c>
@@ -4742,7 +4740,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37377</v>
       </c>
@@ -4762,7 +4760,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37408</v>
       </c>
@@ -4782,7 +4780,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37438</v>
       </c>
@@ -4802,7 +4800,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37469</v>
       </c>
@@ -4822,7 +4820,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37500</v>
       </c>
@@ -4842,7 +4840,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37530</v>
       </c>
@@ -4862,7 +4860,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37561</v>
       </c>
@@ -4882,7 +4880,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37591</v>
       </c>
@@ -4906,7 +4904,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
         <v>48</v>
       </c>
@@ -4924,7 +4922,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37622</v>
       </c>
@@ -4944,7 +4942,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37653</v>
       </c>
@@ -4964,7 +4962,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37681</v>
       </c>
@@ -4984,7 +4982,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37712</v>
       </c>
@@ -5004,7 +5002,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37742</v>
       </c>
@@ -5024,7 +5022,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37773</v>
       </c>
@@ -5044,7 +5042,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37803</v>
       </c>
@@ -5064,7 +5062,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37834</v>
       </c>
@@ -5084,7 +5082,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37865</v>
       </c>
@@ -5104,7 +5102,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37895</v>
       </c>
@@ -5124,7 +5122,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37926</v>
       </c>
@@ -5144,7 +5142,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37956</v>
       </c>
@@ -5168,7 +5166,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
         <v>49</v>
       </c>
@@ -5186,7 +5184,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37987</v>
       </c>
@@ -5206,7 +5204,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38018</v>
       </c>
@@ -5226,7 +5224,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38047</v>
       </c>
@@ -5246,7 +5244,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38078</v>
       </c>
@@ -5266,7 +5264,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38108</v>
       </c>
@@ -5286,7 +5284,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38169</v>
       </c>
@@ -5326,7 +5324,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38200</v>
       </c>
@@ -5346,7 +5344,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38231</v>
       </c>
@@ -5370,7 +5368,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38261</v>
       </c>
@@ -5390,7 +5388,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38292</v>
       </c>
@@ -5410,7 +5408,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38322</v>
       </c>
@@ -5434,7 +5432,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>52</v>
       </c>
@@ -5452,7 +5450,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38353</v>
       </c>
@@ -5472,7 +5470,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38384</v>
       </c>
@@ -5492,7 +5490,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38412</v>
       </c>
@@ -5512,7 +5510,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38443</v>
       </c>
@@ -5532,7 +5530,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38473</v>
       </c>
@@ -5552,7 +5550,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38504</v>
       </c>
@@ -5572,7 +5570,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38534</v>
       </c>
@@ -5592,7 +5590,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38565</v>
       </c>
@@ -5612,7 +5610,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38596</v>
       </c>
@@ -5632,7 +5630,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38626</v>
       </c>
@@ -5652,7 +5650,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38657</v>
       </c>
@@ -5672,7 +5670,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38687</v>
       </c>
@@ -5696,7 +5694,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>53</v>
       </c>
@@ -5714,7 +5712,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38718</v>
       </c>
@@ -5734,7 +5732,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38749</v>
       </c>
@@ -5754,7 +5752,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38777</v>
       </c>
@@ -5774,7 +5772,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38808</v>
       </c>
@@ -5794,7 +5792,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38838</v>
       </c>
@@ -5814,7 +5812,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38869</v>
       </c>
@@ -5834,7 +5832,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38899</v>
       </c>
@@ -5854,7 +5852,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38930</v>
       </c>
@@ -5874,7 +5872,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38961</v>
       </c>
@@ -5894,7 +5892,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38991</v>
       </c>
@@ -5914,7 +5912,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>39022</v>
       </c>
@@ -5934,7 +5932,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>39052</v>
       </c>
@@ -5958,7 +5956,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
         <v>54</v>
       </c>
@@ -5976,7 +5974,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39083</v>
       </c>
@@ -6000,7 +5998,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>39114</v>
       </c>
@@ -6024,7 +6022,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39142</v>
       </c>
@@ -6048,7 +6046,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39173</v>
       </c>
@@ -6072,7 +6070,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39203</v>
       </c>
@@ -6096,7 +6094,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39234</v>
       </c>
@@ -6120,7 +6118,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39264</v>
       </c>
@@ -6140,7 +6138,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39295</v>
       </c>
@@ -6160,7 +6158,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39326</v>
       </c>
@@ -6180,7 +6178,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39356</v>
       </c>
@@ -6200,7 +6198,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39387</v>
       </c>
@@ -6220,7 +6218,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39417</v>
       </c>
@@ -6244,7 +6242,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="46" t="s">
         <v>56</v>
       </c>
@@ -6262,7 +6260,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39448</v>
       </c>
@@ -6282,7 +6280,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>39479</v>
       </c>
@@ -6302,7 +6300,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39508</v>
       </c>
@@ -6322,7 +6320,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39539</v>
       </c>
@@ -6342,7 +6340,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39569</v>
       </c>
@@ -6362,7 +6360,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39600</v>
       </c>
@@ -6382,7 +6380,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39630</v>
       </c>
@@ -6402,7 +6400,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39661</v>
       </c>
@@ -6422,7 +6420,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39692</v>
       </c>
@@ -6442,7 +6440,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39722</v>
       </c>
@@ -6462,7 +6460,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39753</v>
       </c>
@@ -6482,7 +6480,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39783</v>
       </c>
@@ -6506,7 +6504,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="46" t="s">
         <v>57</v>
       </c>
@@ -6524,7 +6522,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39814</v>
       </c>
@@ -6544,7 +6542,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39845</v>
       </c>
@@ -6564,7 +6562,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39873</v>
       </c>
@@ -6588,7 +6586,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6612,7 +6610,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39934</v>
       </c>
@@ -6636,7 +6634,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39965</v>
       </c>
@@ -6656,7 +6654,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39995</v>
       </c>
@@ -6676,7 +6674,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40026</v>
       </c>
@@ -6696,7 +6694,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40057</v>
       </c>
@@ -6716,7 +6714,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40087</v>
       </c>
@@ -6736,7 +6734,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40118</v>
       </c>
@@ -6756,7 +6754,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40148</v>
       </c>
@@ -6780,7 +6778,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="46" t="s">
         <v>66</v>
       </c>
@@ -6798,7 +6796,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40179</v>
       </c>
@@ -6822,7 +6820,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>40210</v>
       </c>
@@ -6846,7 +6844,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40238</v>
       </c>
@@ -6870,7 +6868,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40269</v>
       </c>
@@ -6894,7 +6892,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40299</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40330</v>
       </c>
@@ -6942,7 +6940,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40360</v>
       </c>
@@ -6966,7 +6964,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40391</v>
       </c>
@@ -6990,7 +6988,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40422</v>
       </c>
@@ -7014,7 +7012,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40452</v>
       </c>
@@ -7038,7 +7036,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40483</v>
       </c>
@@ -7062,7 +7060,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40513</v>
       </c>
@@ -7086,7 +7084,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="46" t="s">
         <v>67</v>
       </c>
@@ -7104,7 +7102,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40544</v>
       </c>
@@ -7128,7 +7126,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40575</v>
       </c>
@@ -7152,7 +7150,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40603</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>87</v>
@@ -7198,7 +7196,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40634</v>
       </c>
@@ -7222,7 +7220,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40664</v>
       </c>
@@ -7246,7 +7244,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40695</v>
       </c>
@@ -7270,7 +7268,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40725</v>
       </c>
@@ -7294,7 +7292,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40756</v>
       </c>
@@ -7320,7 +7318,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>92</v>
@@ -7340,7 +7338,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="47"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40787</v>
       </c>
@@ -7364,7 +7362,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40817</v>
       </c>
@@ -7388,7 +7386,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -7412,7 +7410,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -7436,7 +7434,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>96</v>
@@ -7456,7 +7454,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>68</v>
       </c>
@@ -7474,7 +7472,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40909</v>
       </c>
@@ -7498,7 +7496,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40940</v>
       </c>
@@ -7518,7 +7516,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40969</v>
       </c>
@@ -7542,7 +7540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>44</v>
@@ -7564,7 +7562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41000</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41030</v>
       </c>
@@ -7610,7 +7608,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41061</v>
       </c>
@@ -7630,7 +7628,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41091</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>91</v>
@@ -7678,7 +7676,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41122</v>
       </c>
@@ -7698,7 +7696,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41153</v>
       </c>
@@ -7718,7 +7716,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41183</v>
       </c>
@@ -7738,7 +7736,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41214</v>
       </c>
@@ -7758,7 +7756,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41244</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>96</v>
@@ -7806,7 +7804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="46" t="s">
         <v>69</v>
       </c>
@@ -7824,7 +7822,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>41275</v>
       </c>
@@ -7850,7 +7848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>105</v>
@@ -7872,7 +7870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>106</v>
@@ -7892,7 +7890,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41306</v>
       </c>
@@ -7912,7 +7910,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41334</v>
       </c>
@@ -7932,7 +7930,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41365</v>
       </c>
@@ -7958,7 +7956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>110</v>
@@ -7978,7 +7976,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41395</v>
       </c>
@@ -8002,7 +8000,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41426</v>
       </c>
@@ -8026,7 +8024,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41456</v>
       </c>
@@ -8050,7 +8048,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>113</v>
@@ -8070,7 +8068,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41487</v>
       </c>
@@ -8096,7 +8094,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>116</v>
@@ -8116,7 +8114,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41518</v>
       </c>
@@ -8142,7 +8140,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>91</v>
@@ -8164,7 +8162,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>117</v>
@@ -8186,7 +8184,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>118</v>
@@ -8206,7 +8204,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41548</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>122</v>
@@ -8252,7 +8250,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41579</v>
       </c>
@@ -8276,7 +8274,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41609</v>
       </c>
@@ -8302,7 +8300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>98</v>
@@ -8322,7 +8320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>125</v>
@@ -8342,7 +8340,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="46" t="s">
         <v>131</v>
       </c>
@@ -8360,7 +8358,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41640</v>
       </c>
@@ -8384,7 +8382,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41671</v>
       </c>
@@ -8410,7 +8408,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>96</v>
@@ -8432,7 +8430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>134</v>
@@ -8452,7 +8450,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41699</v>
       </c>
@@ -8476,7 +8474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>91</v>
@@ -8498,7 +8496,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>136</v>
@@ -8518,7 +8516,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41730</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>96</v>
@@ -8566,7 +8564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -8586,7 +8584,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41760</v>
       </c>
@@ -8610,7 +8608,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41791</v>
       </c>
@@ -8636,7 +8634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8656,7 +8654,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41821</v>
       </c>
@@ -8682,7 +8680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>144</v>
@@ -8702,7 +8700,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41852</v>
       </c>
@@ -8728,7 +8726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>146</v>
@@ -8748,7 +8746,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41883</v>
       </c>
@@ -8772,7 +8770,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41913</v>
       </c>
@@ -8796,7 +8794,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41944</v>
       </c>
@@ -8820,7 +8818,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41974</v>
       </c>
@@ -8846,7 +8844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>151</v>
@@ -8866,7 +8864,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="46" t="s">
         <v>128</v>
       </c>
@@ -8884,7 +8882,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42005</v>
       </c>
@@ -8908,7 +8906,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42036</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>109</v>
@@ -8956,7 +8954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>153</v>
@@ -8976,7 +8974,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42064</v>
       </c>
@@ -9000,7 +8998,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>109</v>
@@ -9022,7 +9020,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42095</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>159</v>
@@ -9068,7 +9066,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42125</v>
       </c>
@@ -9092,7 +9090,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>160</v>
@@ -9114,7 +9112,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9134,7 +9132,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42156</v>
       </c>
@@ -9158,7 +9156,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42186</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>166</v>
@@ -9204,7 +9202,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42217</v>
       </c>
@@ -9228,7 +9226,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>109</v>
@@ -9250,7 +9248,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42248</v>
       </c>
@@ -9274,7 +9272,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42278</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>42282</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>91</v>
@@ -9322,7 +9320,7 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>171</v>
@@ -9344,7 +9342,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>109</v>
@@ -9366,7 +9364,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9386,7 +9384,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42309</v>
       </c>
@@ -9410,7 +9408,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42339</v>
       </c>
@@ -9434,7 +9432,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="46" t="s">
         <v>129</v>
       </c>
@@ -9452,7 +9450,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42370</v>
       </c>
@@ -9478,7 +9476,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>177</v>
@@ -9498,7 +9496,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>91</v>
@@ -9520,7 +9518,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42401</v>
       </c>
@@ -9546,7 +9544,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>109</v>
@@ -9568,7 +9566,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>179</v>
@@ -9588,7 +9586,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42430</v>
       </c>
@@ -9614,7 +9612,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>184</v>
@@ -9634,7 +9632,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>91</v>
@@ -9656,7 +9654,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42461</v>
       </c>
@@ -9680,7 +9678,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42491</v>
       </c>
@@ -9706,7 +9704,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>171</v>
@@ -9728,7 +9726,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>186</v>
@@ -9748,7 +9746,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -9772,7 +9770,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>117</v>
@@ -9794,7 +9792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42552</v>
       </c>
@@ -9820,7 +9818,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>117</v>
@@ -9842,7 +9840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>91</v>
@@ -9864,7 +9862,7 @@
         <v>42573</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>191</v>
@@ -9884,7 +9882,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42583</v>
       </c>
@@ -9910,7 +9908,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>91</v>
@@ -9932,7 +9930,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>109</v>
@@ -9954,7 +9952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42614</v>
       </c>
@@ -9974,7 +9972,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42644</v>
       </c>
@@ -9994,7 +9992,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42675</v>
       </c>
@@ -10020,7 +10018,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>109</v>
@@ -10042,7 +10040,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>91</v>
@@ -10064,7 +10062,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42705</v>
       </c>
@@ -10084,7 +10082,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="46" t="s">
         <v>130</v>
       </c>
@@ -10102,7 +10100,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42736</v>
       </c>
@@ -10122,7 +10120,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42767</v>
       </c>
@@ -10148,7 +10146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42795</v>
       </c>
@@ -10168,7 +10166,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42826</v>
       </c>
@@ -10192,7 +10190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42856</v>
       </c>
@@ -10212,7 +10210,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42887</v>
       </c>
@@ -10232,7 +10230,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42917</v>
       </c>
@@ -10252,7 +10250,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42948</v>
       </c>
@@ -10272,7 +10270,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>42979</v>
       </c>
@@ -10298,7 +10296,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43009</v>
       </c>
@@ -10324,7 +10322,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43040</v>
       </c>
@@ -10344,7 +10342,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43070</v>
       </c>
@@ -10368,7 +10366,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="46" t="s">
         <v>196</v>
       </c>
@@ -10386,7 +10384,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10406,7 +10404,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43132</v>
       </c>
@@ -10432,7 +10430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43160</v>
       </c>
@@ -10452,7 +10450,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43191</v>
       </c>
@@ -10478,7 +10476,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43221</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>109</v>
@@ -10526,7 +10524,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43252</v>
       </c>
@@ -10546,7 +10544,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43282</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43313</v>
       </c>
@@ -10598,7 +10596,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43344</v>
       </c>
@@ -10618,7 +10616,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43374</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>91</v>
@@ -10666,7 +10664,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43405</v>
       </c>
@@ -10686,7 +10684,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43435</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>203</v>
@@ -10734,7 +10732,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>98</v>
@@ -10754,7 +10752,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
         <v>197</v>
       </c>
@@ -10772,7 +10770,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43466</v>
       </c>
@@ -10796,7 +10794,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43497</v>
       </c>
@@ -10822,7 +10820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43525</v>
       </c>
@@ -10848,7 +10846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>91</v>
@@ -10870,7 +10868,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43556</v>
       </c>
@@ -10896,7 +10894,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>91</v>
@@ -10918,7 +10916,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43586</v>
       </c>
@@ -10944,7 +10942,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43617</v>
       </c>
@@ -10970,7 +10968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>91</v>
@@ -10992,7 +10990,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>109</v>
@@ -11014,7 +11012,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43647</v>
       </c>
@@ -11034,7 +11032,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43678</v>
       </c>
@@ -11054,7 +11052,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43709</v>
       </c>
@@ -11074,7 +11072,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43739</v>
       </c>
@@ -11094,7 +11092,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43770</v>
       </c>
@@ -11114,7 +11112,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43800</v>
       </c>
@@ -11140,7 +11138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
         <v>198</v>
       </c>
@@ -11158,7 +11156,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43831</v>
       </c>
@@ -11182,7 +11180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43862</v>
       </c>
@@ -11208,7 +11206,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43891</v>
       </c>
@@ -11228,7 +11226,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43922</v>
       </c>
@@ -11248,7 +11246,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43952</v>
       </c>
@@ -11268,7 +11266,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43983</v>
       </c>
@@ -11288,7 +11286,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44013</v>
       </c>
@@ -11308,7 +11306,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44044</v>
       </c>
@@ -11328,7 +11326,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44075</v>
       </c>
@@ -11354,7 +11352,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44105</v>
       </c>
@@ -11374,7 +11372,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44136</v>
       </c>
@@ -11394,7 +11392,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44166</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="46" t="s">
         <v>199</v>
       </c>
@@ -11438,7 +11436,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44197</v>
       </c>
@@ -11458,7 +11456,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44228</v>
       </c>
@@ -11478,7 +11476,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44256</v>
       </c>
@@ -11498,7 +11496,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44287</v>
       </c>
@@ -11518,7 +11516,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44317</v>
       </c>
@@ -11538,7 +11536,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44348</v>
       </c>
@@ -11558,7 +11556,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44378</v>
       </c>
@@ -11578,7 +11576,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44409</v>
       </c>
@@ -11598,7 +11596,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44440</v>
       </c>
@@ -11618,7 +11616,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44470</v>
       </c>
@@ -11638,7 +11636,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44501</v>
       </c>
@@ -11658,7 +11656,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44531</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="46" t="s">
         <v>220</v>
       </c>
@@ -11702,7 +11700,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44562</v>
       </c>
@@ -11722,7 +11720,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44593</v>
       </c>
@@ -11742,7 +11740,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44621</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44652</v>
       </c>
@@ -11788,7 +11786,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44682</v>
       </c>
@@ -11814,7 +11812,7 @@
         <v>44698</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>91</v>
@@ -11836,7 +11834,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>91</v>
@@ -11858,7 +11856,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>200</v>
@@ -11878,7 +11876,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>44760</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -11924,7 +11922,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -11944,7 +11942,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44805</v>
       </c>
@@ -11968,7 +11966,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44835</v>
@@ -11995,7 +11993,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>109</v>
@@ -12017,7 +12015,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>44866</v>
@@ -12044,7 +12042,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" ref="A395:A398" si="0">EDATE(A394,1)</f>
         <v>44896</v>
@@ -12071,7 +12069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="46" t="s">
         <v>224</v>
       </c>
@@ -12089,7 +12087,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>44927</v>
@@ -12110,7 +12108,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="0"/>
         <v>44958</v>
@@ -12135,7 +12133,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>91</v>
@@ -12157,7 +12155,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>44986</v>
@@ -12184,7 +12182,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45017</v>
       </c>
@@ -12206,7 +12204,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>203</v>
@@ -12228,9 +12226,13 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="40"/>
-      <c r="B403" s="20"/>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
@@ -12239,12 +12241,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H403" s="39"/>
+      <c r="H403" s="39">
+        <v>1</v>
+      </c>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K403" s="47">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12260,7 +12266,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12276,7 +12282,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12292,7 +12298,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12308,7 +12314,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12324,7 +12330,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12340,7 +12346,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12356,7 +12362,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12372,7 +12378,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12388,7 +12394,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="51"/>
       <c r="B413" s="15"/>
       <c r="C413" s="41"/>
@@ -12419,10 +12425,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12445,7 +12451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12453,21 +12459,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -12480,7 +12486,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12509,7 +12515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.183</v>
       </c>
@@ -12537,17 +12543,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>232</v>
       </c>
@@ -12571,10 +12577,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>365.18099999999998</v>
+        <v>364.18099999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12602,7 +12608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12628,7 +12634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12706,7 +12712,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12784,7 +12790,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12804,7 +12810,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12824,7 +12830,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12844,7 +12850,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12865,7 +12871,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12907,7 +12913,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12928,7 +12934,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12949,7 +12955,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12970,7 +12976,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12991,7 +12997,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13012,7 +13018,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13075,7 +13081,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13117,7 +13123,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13138,7 +13144,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13159,7 +13165,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13180,7 +13186,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13201,7 +13207,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13222,7 +13228,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13243,7 +13249,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13273,7 +13279,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13282,7 +13288,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13291,7 +13297,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13300,7 +13306,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13309,7 +13315,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13318,7 +13324,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13327,7 +13333,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13336,7 +13342,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13345,7 +13351,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13354,7 +13360,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13363,7 +13369,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13372,7 +13378,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13381,7 +13387,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13390,7 +13396,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13399,7 +13405,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13408,7 +13414,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13417,7 +13423,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13426,7 +13432,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13435,7 +13441,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13444,7 +13450,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13453,7 +13459,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13462,7 +13468,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13471,7 +13477,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13480,7 +13486,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13489,7 +13495,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13498,7 +13504,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13507,7 +13513,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13516,7 +13522,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13525,7 +13531,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="234">
   <si>
     <t>PERIOD</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/5-6/2023</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1662,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1786,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1852,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1915,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2013,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2072,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2137,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2180,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2255,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2441,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2507,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2565,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2631,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2687,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2762,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2805,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2871,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2927,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +3025,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3088,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,9 +3535,9 @@
   <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A389" activePane="bottomLeft"/>
+      <pane ySplit="3660" topLeftCell="A392" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A404" sqref="A404"/>
+      <selection pane="bottomLeft" activeCell="K405" sqref="K405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,7 +3708,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.31</v>
+        <v>259.31</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12251,8 +12254,12 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40"/>
-      <c r="B404" s="20"/>
+      <c r="A404" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
@@ -12261,10 +12268,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H404" s="39"/>
+      <c r="H404" s="39">
+        <v>2</v>
+      </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="20" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
@@ -12580,7 +12591,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>364.18099999999998</v>
+        <v>362.18099999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/BOFILL, ERNA.xlsx
+++ b/REGULAR/BOFILL, ERNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="236">
   <si>
     <t>PERIOD</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>6/5-6/2023</t>
+  </si>
+  <si>
+    <t>7/6-7/2023</t>
+  </si>
+  <si>
+    <t>7/17-18/2023</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3160,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K414" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3532,12 +3538,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K413"/>
+  <dimension ref="A2:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3660" topLeftCell="A392" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K405" sqref="K405"/>
+      <selection pane="bottomLeft" activeCell="I407" sqref="I407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,7 +3704,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.87099999999998</v>
+        <v>107.87099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -12192,13 +12198,15 @@
       <c r="B401" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
@@ -12236,13 +12244,15 @@
       <c r="B403" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39">
         <v>1</v>
@@ -12260,13 +12270,15 @@
       <c r="B404" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C404" s="13"/>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H404" s="39">
         <v>2</v>
@@ -12278,24 +12290,36 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40"/>
-      <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
+      <c r="A405" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H405" s="39"/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H405" s="39">
+        <v>2</v>
+      </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="20" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
@@ -12304,14 +12328,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H406" s="39"/>
+      <c r="H406" s="39">
+        <v>2</v>
+      </c>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="20" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
@@ -12320,13 +12350,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H407" s="39"/>
+      <c r="H407" s="39">
+        <v>1</v>
+      </c>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="47">
+        <v>45133</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="40"/>
+      <c r="A408" s="40">
+        <v>45139</v>
+      </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
@@ -12406,20 +12442,36 @@
       <c r="K412" s="20"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="51"/>
-      <c r="B413" s="15"/>
-      <c r="C413" s="41"/>
-      <c r="D413" s="42"/>
+      <c r="A413" s="40"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39"/>
       <c r="E413" s="9"/>
-      <c r="F413" s="15"/>
-      <c r="G413" s="41" t="str">
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H413" s="42"/>
+      <c r="H413" s="39"/>
       <c r="I413" s="9"/>
-      <c r="J413" s="12"/>
-      <c r="K413" s="15"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="51"/>
+      <c r="B414" s="15"/>
+      <c r="C414" s="41"/>
+      <c r="D414" s="42"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="15"/>
+      <c r="G414" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="42"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="12"/>
+      <c r="K414" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12591,7 +12643,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>362.18099999999998</v>
+        <v>367.18099999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
